--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N2">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q2">
-        <v>13123.69840961198</v>
+        <v>3634.66189992853</v>
       </c>
       <c r="R2">
-        <v>118113.2856865078</v>
+        <v>32711.95709935677</v>
       </c>
       <c r="S2">
-        <v>0.1357825987042191</v>
+        <v>0.0457187825052828</v>
       </c>
       <c r="T2">
-        <v>0.1357825987042191</v>
+        <v>0.0457187825052828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P3">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q3">
-        <v>24.94522876116266</v>
+        <v>36.64662185474133</v>
       </c>
       <c r="R3">
-        <v>224.5070588504639</v>
+        <v>329.819596692672</v>
       </c>
       <c r="S3">
-        <v>0.0002580924889268343</v>
+        <v>0.0004609614264708382</v>
       </c>
       <c r="T3">
-        <v>0.0002580924889268344</v>
+        <v>0.0004609614264708383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N4">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O4">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P4">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q4">
-        <v>2882.958259937838</v>
+        <v>5665.353304688966</v>
       </c>
       <c r="R4">
-        <v>25946.62433944054</v>
+        <v>50988.17974220069</v>
       </c>
       <c r="S4">
-        <v>0.02982814388689742</v>
+        <v>0.07126193926256336</v>
       </c>
       <c r="T4">
-        <v>0.02982814388689743</v>
+        <v>0.07126193926256334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N5">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O5">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P5">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q5">
-        <v>18239.52845886688</v>
+        <v>24992.61401204472</v>
       </c>
       <c r="R5">
-        <v>164155.7561298019</v>
+        <v>224933.5261084025</v>
       </c>
       <c r="S5">
-        <v>0.1887128533425151</v>
+        <v>0.314370886677967</v>
       </c>
       <c r="T5">
-        <v>0.1887128533425152</v>
+        <v>0.314370886677967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N6">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q6">
-        <v>19917.18221402199</v>
+        <v>3754.820824110272</v>
       </c>
       <c r="R6">
-        <v>179254.6399261979</v>
+        <v>33793.38741699245</v>
       </c>
       <c r="S6">
-        <v>0.2060704746083323</v>
+        <v>0.04723020774151779</v>
       </c>
       <c r="T6">
-        <v>0.2060704746083324</v>
+        <v>0.04723020774151779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P7">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q7">
         <v>37.858128943488</v>
@@ -883,10 +883,10 @@
         <v>340.723160491392</v>
       </c>
       <c r="S7">
-        <v>0.0003916940918317092</v>
+        <v>0.0004762004309832266</v>
       </c>
       <c r="T7">
-        <v>0.0003916940918317093</v>
+        <v>0.0004762004309832267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N8">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O8">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P8">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q8">
-        <v>4375.32189375414</v>
+        <v>5852.645211596261</v>
       </c>
       <c r="R8">
-        <v>39377.89704378726</v>
+        <v>52673.80690436634</v>
       </c>
       <c r="S8">
-        <v>0.04526868557618486</v>
+        <v>0.07361780019066305</v>
       </c>
       <c r="T8">
-        <v>0.04526868557618487</v>
+        <v>0.07361780019066305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N9">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O9">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P9">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q9">
-        <v>27681.22220387356</v>
+        <v>25818.84921489423</v>
       </c>
       <c r="R9">
-        <v>249130.999834862</v>
+        <v>232369.6429340481</v>
       </c>
       <c r="S9">
-        <v>0.2864000808947278</v>
+        <v>0.3247637288672302</v>
       </c>
       <c r="T9">
-        <v>0.2864000808947279</v>
+        <v>0.3247637288672302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N10">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q10">
-        <v>3912.211552628394</v>
+        <v>1022.710163542412</v>
       </c>
       <c r="R10">
-        <v>35209.90397365555</v>
+        <v>9204.391471881712</v>
       </c>
       <c r="S10">
-        <v>0.04047717607618025</v>
+        <v>0.01286421263387859</v>
       </c>
       <c r="T10">
-        <v>0.04047717607618027</v>
+        <v>0.01286421263387859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O11">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P11">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q11">
-        <v>7.436243130282666</v>
+        <v>10.31151553080533</v>
       </c>
       <c r="R11">
-        <v>66.92618817254399</v>
+        <v>92.80363977724799</v>
       </c>
       <c r="S11">
-        <v>7.693809971178927E-05</v>
+        <v>0.0001297039308833662</v>
       </c>
       <c r="T11">
-        <v>7.693809971178931E-05</v>
+        <v>0.0001297039308833662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N12">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O12">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P12">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q12">
-        <v>859.4179977508131</v>
+        <v>1594.099964257454</v>
       </c>
       <c r="R12">
-        <v>7734.761979757319</v>
+        <v>14346.89967831709</v>
       </c>
       <c r="S12">
-        <v>0.008891853916904533</v>
+        <v>0.02005146876494859</v>
       </c>
       <c r="T12">
-        <v>0.008891853916904537</v>
+        <v>0.02005146876494859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N13">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O13">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P13">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q13">
-        <v>5437.254935621698</v>
+        <v>7032.346079868736</v>
       </c>
       <c r="R13">
-        <v>48935.29442059528</v>
+        <v>63291.11471881862</v>
       </c>
       <c r="S13">
-        <v>0.05625583444033774</v>
+        <v>0.08845672851544151</v>
       </c>
       <c r="T13">
-        <v>0.05625583444033777</v>
+        <v>0.08845672851544151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N14">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O14">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P14">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q14">
-        <v>58.68490674464445</v>
+        <v>5.028271597973333</v>
       </c>
       <c r="R14">
-        <v>528.1641607018</v>
+        <v>45.25444438176</v>
       </c>
       <c r="S14">
-        <v>0.0006071755761063828</v>
+        <v>6.324837409767162E-05</v>
       </c>
       <c r="T14">
-        <v>0.000607175576106383</v>
+        <v>6.324837409767164E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O15">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P15">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q15">
-        <v>0.1115469418666667</v>
+        <v>0.05069774655999999</v>
       </c>
       <c r="R15">
-        <v>1.0039224768</v>
+        <v>0.45627971904</v>
       </c>
       <c r="S15">
-        <v>1.154105586049677E-06</v>
+        <v>6.377042245745514E-07</v>
       </c>
       <c r="T15">
-        <v>1.154105586049677E-06</v>
+        <v>6.377042245745515E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N16">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O16">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P16">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q16">
-        <v>12.89165076433333</v>
+        <v>7.837574965366668</v>
       </c>
       <c r="R16">
-        <v>116.024856879</v>
+        <v>70.5381746883</v>
       </c>
       <c r="S16">
-        <v>0.0001333817486301231</v>
+        <v>9.85853416565359E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001333817486301231</v>
+        <v>9.85853416565359E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N17">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O17">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P17">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q17">
-        <v>81.56123321844444</v>
+        <v>34.57533455817333</v>
       </c>
       <c r="R17">
-        <v>734.0510989659999</v>
+        <v>311.17801102356</v>
       </c>
       <c r="S17">
-        <v>0.0008438624429078675</v>
+        <v>0.0004349076321909329</v>
       </c>
       <c r="T17">
-        <v>0.0008438624429078677</v>
+        <v>0.000434907632190933</v>
       </c>
     </row>
   </sheetData>
